--- a/BOM/mouser copy-paste.xlsx
+++ b/BOM/mouser copy-paste.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3A6119-0576-4705-918A-69C8F4DE494B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0FFF78-2485-4C43-ADBA-176CC4444C75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,30 +37,15 @@
     <t>963-LMK063C6104MP-F</t>
   </si>
   <si>
-    <t>81-GRM21BR60J107ME5L</t>
-  </si>
-  <si>
-    <t>791-0402X106M6R3CT</t>
-  </si>
-  <si>
     <t xml:space="preserve">667-ERJ-1GNF1001C </t>
   </si>
   <si>
     <t>81-GRM033R60J105ME1J</t>
   </si>
   <si>
-    <t>81-GRM188R60J226ME0D</t>
-  </si>
-  <si>
     <t>710-74404043220A</t>
   </si>
   <si>
-    <t>603-PE805FRF070R002L</t>
-  </si>
-  <si>
-    <t>81-GRM035R60J475ME5D</t>
-  </si>
-  <si>
     <t>963-MAMK2520T4R7M</t>
   </si>
   <si>
@@ -95,6 +80,21 @@
   </si>
   <si>
     <t>595-TPS613221ADBVR</t>
+  </si>
+  <si>
+    <t>647-F931A107KBA</t>
+  </si>
+  <si>
+    <t>81-ZRB15XR61A106ME1D</t>
+  </si>
+  <si>
+    <t>81-GRM188R61A226ME5D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">756-LRCS0805-R56JT5 </t>
+  </si>
+  <si>
+    <t>963-LMK105BBJ475MVLF</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
